--- a/Digital Marketing Dataset(AutoRecovered).xlsx
+++ b/Digital Marketing Dataset(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DAI\Digital Marketing Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F36671-C3C7-4CAD-B921-85DABC15304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F48AA62-4E9A-4FDD-8670-25A0F40FE2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -659,6 +659,9 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="77">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -1594,9 +1597,6 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -2252,11 +2252,11 @@
       <calculatedColumnFormula>W2/Y2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{D7753A4E-F88C-4DA1-9B06-DF2EBBCEC5F6}" name="Budget Allocation" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{F4BA01CE-131B-4172-8D39-1EAED8A387E1}" name="Budget_Utilization" dataDxfId="46">
-      <calculatedColumnFormula>(Y2/AA2)*100</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{F4BA01CE-131B-4172-8D39-1EAED8A387E1}" name="Budget_Utilization" dataDxfId="0">
+      <calculatedColumnFormula>Y2/AA2*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{9780609E-BB92-48DE-A66B-4AF46E0A9440}" name="Sales Target" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{F37D39FF-57C3-4296-ABD5-AEC86DB3E0C3}" name="Target_Achieved (%)" dataDxfId="44">
+    <tableColumn id="10" xr3:uid="{9780609E-BB92-48DE-A66B-4AF46E0A9440}" name="Sales Target" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{F37D39FF-57C3-4296-ABD5-AEC86DB3E0C3}" name="Target_Achieved (%)" dataDxfId="45">
       <calculatedColumnFormula>(P2/AC2)*100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2265,37 +2265,37 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AAE0A83-7370-4F55-956C-1D76937BE5ED}" name="Table2" displayName="Table2" ref="A1:T193" totalsRowShown="0" headerRowDxfId="43" headerRowBorderDxfId="42" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4AAE0A83-7370-4F55-956C-1D76937BE5ED}" name="Table2" displayName="Table2" ref="A1:T193" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42" totalsRowBorderDxfId="41">
   <autoFilter ref="A1:T193" xr:uid="{4AAE0A83-7370-4F55-956C-1D76937BE5ED}"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{06C772FE-50D6-43E6-9C05-9660086BB2FB}" name="Date" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{014115DA-E3B1-4AAC-ABC5-19052ABE9659}" name="Month" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{06C772FE-50D6-43E6-9C05-9660086BB2FB}" name="Date" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{014115DA-E3B1-4AAC-ABC5-19052ABE9659}" name="Month" dataDxfId="39">
       <calculatedColumnFormula>TEXT(A2, "mmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{6C0F9034-44A4-424F-AB1B-7AB651946219}" name="Year" dataDxfId="37">
+    <tableColumn id="3" xr3:uid="{6C0F9034-44A4-424F-AB1B-7AB651946219}" name="Year" dataDxfId="38">
       <calculatedColumnFormula>YEAR(A2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6743F8D0-302E-4B06-9C27-DA2488418963}" name="Ad Campaign" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{AA109BF9-A4F5-4EB5-8AAD-369F0741C29B}" name="Display ads" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{21A94D95-F0CC-4D5A-8498-1D71F7351A85}" name="Overlay ads" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{6533A118-803C-4E91-B6CE-A9484D8B119F}" name="Skippable ads" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{5B829AD4-EF28-4715-B9D2-61E484D8FA40}" name="Non-skippable ads" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{A362CFD7-3EFD-41DB-AFA2-C419956E43CA}" name="Bumper ads" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{18F656BD-1D37-4A41-9B3E-430D314890EC}" name="Platform" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{3F2D45DD-F27A-48F7-91F7-17C3E9E6C3D8}" name="Avg Pages Visited" dataDxfId="29"/>
-    <tableColumn id="12" xr3:uid="{E4C24924-9FDA-40D1-810F-C75358969497}" name="AVG Time on Site (mins)" dataDxfId="28"/>
-    <tableColumn id="13" xr3:uid="{E88E2AD3-E2EC-48E8-B97F-A7D5A8B0C977}" name="Impressions " dataDxfId="27"/>
-    <tableColumn id="14" xr3:uid="{5C08FD96-541A-4EAF-BE8A-1E72782E30E1}" name="Clicks" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{64967974-2F19-411C-8174-B52CA0EFAC30}" name="Conversions" dataDxfId="25"/>
-    <tableColumn id="16" xr3:uid="{156D37E2-6180-47AC-BA50-ACCFD131FBFA}" name="Quantity Sold" dataDxfId="24">
+    <tableColumn id="4" xr3:uid="{6743F8D0-302E-4B06-9C27-DA2488418963}" name="Ad Campaign" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{AA109BF9-A4F5-4EB5-8AAD-369F0741C29B}" name="Display ads" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{21A94D95-F0CC-4D5A-8498-1D71F7351A85}" name="Overlay ads" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{6533A118-803C-4E91-B6CE-A9484D8B119F}" name="Skippable ads" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{5B829AD4-EF28-4715-B9D2-61E484D8FA40}" name="Non-skippable ads" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{A362CFD7-3EFD-41DB-AFA2-C419956E43CA}" name="Bumper ads" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{18F656BD-1D37-4A41-9B3E-430D314890EC}" name="Platform" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{3F2D45DD-F27A-48F7-91F7-17C3E9E6C3D8}" name="Avg Pages Visited" dataDxfId="30"/>
+    <tableColumn id="12" xr3:uid="{E4C24924-9FDA-40D1-810F-C75358969497}" name="AVG Time on Site (mins)" dataDxfId="29"/>
+    <tableColumn id="13" xr3:uid="{E88E2AD3-E2EC-48E8-B97F-A7D5A8B0C977}" name="Impressions " dataDxfId="28"/>
+    <tableColumn id="14" xr3:uid="{5C08FD96-541A-4EAF-BE8A-1E72782E30E1}" name="Clicks" dataDxfId="27"/>
+    <tableColumn id="15" xr3:uid="{64967974-2F19-411C-8174-B52CA0EFAC30}" name="Conversions" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{156D37E2-6180-47AC-BA50-ACCFD131FBFA}" name="Quantity Sold" dataDxfId="25">
       <calculatedColumnFormula>O2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{6E2B5856-F3F5-4184-B27B-2BC4DAF47599}" name="Unit Cost Price" dataDxfId="23"/>
-    <tableColumn id="18" xr3:uid="{2A464EF0-AA80-45D1-93C8-217A06C96C73}" name="Unit Sale Price" dataDxfId="22"/>
-    <tableColumn id="19" xr3:uid="{BB025D35-1F13-496E-A106-C86E7D0DF0EA}" name="Final Cost Price" dataDxfId="21">
+    <tableColumn id="17" xr3:uid="{6E2B5856-F3F5-4184-B27B-2BC4DAF47599}" name="Unit Cost Price" dataDxfId="24"/>
+    <tableColumn id="18" xr3:uid="{2A464EF0-AA80-45D1-93C8-217A06C96C73}" name="Unit Sale Price" dataDxfId="23"/>
+    <tableColumn id="19" xr3:uid="{BB025D35-1F13-496E-A106-C86E7D0DF0EA}" name="Final Cost Price" dataDxfId="22">
       <calculatedColumnFormula>Q2*P2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{1CBBB59B-6074-4C66-87FE-C08683B596E6}" name="Final Sale Price" dataDxfId="20">
+    <tableColumn id="20" xr3:uid="{1CBBB59B-6074-4C66-87FE-C08683B596E6}" name="Final Sale Price" dataDxfId="21">
       <calculatedColumnFormula>R2*P2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2304,41 +2304,41 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A5654BF-D08F-49E3-80B4-0F54044FFD0A}" name="Table3" displayName="Table3" ref="A1:X193" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1A5654BF-D08F-49E3-80B4-0F54044FFD0A}" name="Table3" displayName="Table3" ref="A1:X193" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:X193" xr:uid="{1A5654BF-D08F-49E3-80B4-0F54044FFD0A}"/>
   <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{61C00896-98CB-4ECD-B221-557237916333}" name="Campaign" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{ED7FB009-0E99-45DC-B285-C1AB3BD73A09}" name="Platform" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{BA20DEB7-326E-434C-AADF-503E526298C8}" name="Month" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00ACCF7C-30C1-49C1-9A18-01AB960AE500}" name="Year" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{A5061846-5C57-4D79-8072-9CEE08DA7E1B}" name="Impression" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{3611D9B9-2E59-48AE-9D1E-D0CB09B839D5}" name="Clicks" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{61C00896-98CB-4ECD-B221-557237916333}" name="Campaign" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{ED7FB009-0E99-45DC-B285-C1AB3BD73A09}" name="Platform" dataDxfId="18"/>
+    <tableColumn id="23" xr3:uid="{BA20DEB7-326E-434C-AADF-503E526298C8}" name="Month" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00ACCF7C-30C1-49C1-9A18-01AB960AE500}" name="Year" dataDxfId="16"/>
+    <tableColumn id="24" xr3:uid="{A5061846-5C57-4D79-8072-9CEE08DA7E1B}" name="Impression" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{3611D9B9-2E59-48AE-9D1E-D0CB09B839D5}" name="Clicks" dataDxfId="14"/>
     <tableColumn id="6" xr3:uid="{E18CF2AC-3977-499D-8182-06CC8FBE6173}" name="CTR (%)" dataCellStyle="Percent">
       <calculatedColumnFormula>(E2/F2)/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1407A309-8DEB-421B-B959-9135441154FC}" name="Conversions" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E3AF5958-E3BD-4C3A-B50A-011242EE93BE}" name="Conversion Rate (%)" dataDxfId="11">
+    <tableColumn id="7" xr3:uid="{1407A309-8DEB-421B-B959-9135441154FC}" name="Conversions" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{E3AF5958-E3BD-4C3A-B50A-011242EE93BE}" name="Conversion Rate (%)" dataDxfId="12">
       <calculatedColumnFormula>(H2/F2)*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E4869C15-27F0-4591-8252-B784E4E39C1D}" name="Quantity Sold" dataDxfId="10">
+    <tableColumn id="9" xr3:uid="{E4869C15-27F0-4591-8252-B784E4E39C1D}" name="Quantity Sold" dataDxfId="11">
       <calculatedColumnFormula>I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{EE1988BB-D39F-47BC-AB7B-54C9CBCC03CB}" name="CPI" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{4A0400B8-EB49-4515-9C2F-0C8D81EECA8D}" name="CPM ($)" dataDxfId="8">
+    <tableColumn id="25" xr3:uid="{EE1988BB-D39F-47BC-AB7B-54C9CBCC03CB}" name="CPI" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{4A0400B8-EB49-4515-9C2F-0C8D81EECA8D}" name="CPM ($)" dataDxfId="9">
       <calculatedColumnFormula>(Table3[[#This Row],[Ad Spend ($)]]/Table3[[#This Row],[Impression]])*1000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{76A49361-D9ED-45EF-B095-C9495D8249F3}" name="CPC ($)" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{ABEDD908-65CF-48AB-9193-541AE92B8B8F}" name="Ad Spend ($)" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{76A49361-D9ED-45EF-B095-C9495D8249F3}" name="CPC ($)" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{ABEDD908-65CF-48AB-9193-541AE92B8B8F}" name="Ad Spend ($)" dataDxfId="7">
       <calculatedColumnFormula>Table3[[#This Row],[Impression]]*Table3[[#This Row],[CPI]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7FE29EE1-015C-4988-A76C-73425F7162C9}" name="Final Cost Price ($)" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{A9C8A602-4598-4D76-8E12-FDAF9C683E1D}" name="Revenue ($)" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{5524ABEA-084E-415F-ABAA-9CFA86E20FBB}" name="Profit ($)" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{7FE29EE1-015C-4988-A76C-73425F7162C9}" name="Final Cost Price ($)" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{A9C8A602-4598-4D76-8E12-FDAF9C683E1D}" name="Revenue ($)" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{5524ABEA-084E-415F-ABAA-9CFA86E20FBB}" name="Profit ($)" dataDxfId="4"/>
     <tableColumn id="16" xr3:uid="{79B14923-489D-4F91-8ABD-32200EED3E09}" name="ROAS"/>
-    <tableColumn id="17" xr3:uid="{993B41F6-9684-470F-8EF9-9F7831FA9A15}" name="Budget ($)" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{FBF293B5-9878-40F4-8BD6-11ABB5C802D4}" name="Budget Utilization (%)" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{993B41F6-9684-470F-8EF9-9F7831FA9A15}" name="Budget ($)" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{FBF293B5-9878-40F4-8BD6-11ABB5C802D4}" name="Budget Utilization (%)" dataDxfId="2"/>
     <tableColumn id="19" xr3:uid="{80164D8A-1B32-4A64-AFE7-0F5BBE536376}" name="Sales Target"/>
-    <tableColumn id="20" xr3:uid="{8F5FBE47-F8E7-4190-98AC-0D35257FF810}" name="Achieved (%)" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{8F5FBE47-F8E7-4190-98AC-0D35257FF810}" name="Achieved (%)" dataDxfId="1"/>
     <tableColumn id="21" xr3:uid="{F7C43034-A316-43D0-A7FD-EEC2FA10F309}" name="Performance Category"/>
     <tableColumn id="22" xr3:uid="{C72A8EE6-DE37-42E4-BB21-DC873E6A10A7}" name="Recommendations"/>
   </tableColumns>
@@ -16340,7 +16340,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16966,8 +16966,8 @@
   </sheetPr>
   <dimension ref="A1:AE193"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23540,8 +23540,8 @@
   </sheetPr>
   <dimension ref="A1:AG194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="K188" sqref="K188"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23573,8 +23573,8 @@
     <col min="26" max="26" width="24.21875" style="65" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="16" style="29" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="16.44140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.44140625" style="29" customWidth="1"/>
-    <col min="30" max="30" width="12" style="62" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.5546875" style="62" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23774,7 +23774,7 @@
         <v>150538.7378142637</v>
       </c>
       <c r="AB2" s="62">
-        <f>(Y2/AA2)*100</f>
+        <f>Y2/AA2*100</f>
         <v>10188.93888888889</v>
       </c>
       <c r="AC2" s="29">
@@ -23879,7 +23879,7 @@
         <v>122832.22165212929</v>
       </c>
       <c r="AB3" s="62">
-        <f>(Y3/AA3)*100</f>
+        <f t="shared" ref="AB2:AB33" si="12">Y3/AA3*100</f>
         <v>21069.339666666667</v>
       </c>
       <c r="AC3" s="29">
@@ -23984,7 +23984,7 @@
         <v>160389.9435608004</v>
       </c>
       <c r="AB4" s="62">
-        <f t="shared" ref="AB4:AB33" si="12">(Y4/AA4)*100</f>
+        <f t="shared" si="12"/>
         <v>30643.152500000004</v>
       </c>
       <c r="AC4" s="29">
@@ -27140,7 +27140,7 @@
         <v>154514.83211996089</v>
       </c>
       <c r="AB34" s="62">
-        <f t="shared" ref="AB34:AB65" si="18">(Y34/AA34)*100</f>
+        <f t="shared" ref="AB34:AB65" si="18">Y34/AA34*100</f>
         <v>19643.292222222219</v>
       </c>
       <c r="AC34" s="29">
@@ -30520,7 +30520,7 @@
         <v>173714.98504215392</v>
       </c>
       <c r="AB66" s="62">
-        <f t="shared" ref="AB66:AB97" si="27">(Y66/AA66)*100</f>
+        <f t="shared" ref="AB66:AB97" si="27">Y66/AA66*100</f>
         <v>11273.682000000001</v>
       </c>
       <c r="AC66" s="29">
@@ -33895,7 +33895,7 @@
         <v>216225.44833475663</v>
       </c>
       <c r="AB98" s="62">
-        <f t="shared" ref="AB98:AB129" si="38">(Y98/AA98)*100</f>
+        <f t="shared" ref="AB98:AB129" si="38">Y98/AA98*100</f>
         <v>24708.1</v>
       </c>
       <c r="AC98" s="29">
@@ -37260,7 +37260,7 @@
         <v>183084.57711442787</v>
       </c>
       <c r="AB130" s="62">
-        <f t="shared" ref="AB130:AB161" si="46">(Y130/AA130)*100</f>
+        <f t="shared" ref="AB130:AB161" si="46">Y130/AA130*100</f>
         <v>19532.174999999999</v>
       </c>
       <c r="AC130" s="29">
@@ -40635,7 +40635,7 @@
         <v>203655.97556319204</v>
       </c>
       <c r="AB162" s="62">
-        <f t="shared" ref="AB162:AB193" si="58">(Y162/AA162)*100</f>
+        <f t="shared" ref="AB162:AB193" si="58">Y162/AA162*100</f>
         <v>30935.011764705883</v>
       </c>
       <c r="AC162" s="29">
@@ -44032,8 +44032,8 @@
   </sheetPr>
   <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
